--- a/Documents/Analysis & Design/Data Model.xlsx
+++ b/Documents/Analysis & Design/Data Model.xlsx
@@ -7,16 +7,14 @@
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="DataModel" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
   <si>
     <t>User</t>
   </si>
@@ -84,15 +82,9 @@
     <t>Flag</t>
   </si>
   <si>
-    <t>Loại user: Business, Job seeker, Education, …</t>
-  </si>
-  <si>
     <t>JobSeeker</t>
   </si>
   <si>
-    <t>JobSeekerID</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -196,6 +188,114 @@
   </si>
   <si>
     <t>Referral</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>JobSeeker.Experiences</t>
+  </si>
+  <si>
+    <t>ExperienceID</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>Present bỏ trống</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>SkillTagID</t>
+  </si>
+  <si>
+    <t>SkillName</t>
+  </si>
+  <si>
+    <t>JobSeeker.Projects</t>
+  </si>
+  <si>
+    <t>JobSeeker.SkillTags</t>
+  </si>
+  <si>
+    <t>ProjectID</t>
+  </si>
+  <si>
+    <t>Hiển thị: Title at Place</t>
+  </si>
+  <si>
+    <t>Title/Degree</t>
+  </si>
+  <si>
+    <t>ExperienceType</t>
+  </si>
+  <si>
+    <t>Education / Work</t>
+  </si>
+  <si>
+    <t>JobSeeker.ProjectTeamMembers</t>
+  </si>
+  <si>
+    <t>rowguid</t>
+  </si>
+  <si>
+    <t>ProjectURL</t>
+  </si>
+  <si>
+    <t>another team member</t>
+  </si>
+  <si>
+    <t>JobSeeker.Connections</t>
+  </si>
+  <si>
+    <t>ReferralID</t>
+  </si>
+  <si>
+    <t>UserID_1</t>
+  </si>
+  <si>
+    <t>UserID_2</t>
+  </si>
+  <si>
+    <t>Khai thác dữ liệu từ bảng Company</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>0: user1 add mà user2 chưa accept, 1: đã accept; kiểm tra ràng buộc 1 add 2 mà 2 xoá tin nhắn, 2 add lại 1, phải xoá dòng dư đi</t>
+  </si>
+  <si>
+    <t>MemberID (UserID)</t>
+  </si>
+  <si>
+    <t>Loại user: Business, Job seeker (Starter, Professonal, Premium)</t>
+  </si>
+  <si>
+    <t>người đại diện</t>
+  </si>
+  <si>
+    <t>Post job desciption để match với Job seeker profiles</t>
+  </si>
+  <si>
+    <t>Trình độ anh văn</t>
+  </si>
+  <si>
+    <t>JobSeeker.HonorsAndAwards</t>
+  </si>
+  <si>
+    <t>Issuer</t>
+  </si>
+  <si>
+    <t>Who awarded you or bestowed this honor?</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -565,16 +665,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E839"/>
+  <dimension ref="A1:E886"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="50" style="1" bestFit="1" customWidth="1"/>
@@ -611,7 +711,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -654,7 +754,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -762,10 +862,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -779,10 +879,10 @@
         <v/>
       </c>
       <c r="C25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -791,10 +891,10 @@
         <v/>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -803,7 +903,7 @@
         <v/>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -812,7 +912,7 @@
         <v/>
       </c>
       <c r="C28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -821,7 +921,7 @@
         <v/>
       </c>
       <c r="C29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -830,7 +930,7 @@
         <v/>
       </c>
       <c r="C30" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -839,7 +939,7 @@
         <v/>
       </c>
       <c r="C31" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -848,28 +948,28 @@
         <v/>
       </c>
       <c r="C32" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="str">
         <f>IF(COUNTA(B33)=0,"",MAX($A$2:A32)+1)</f>
         <v/>
       </c>
       <c r="C33" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="str">
         <f>IF(COUNTA(B34)=0,"",MAX($A$2:A33)+1)</f>
         <v/>
       </c>
       <c r="C34" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="str">
         <f>IF(COUNTA(B35)=0,"",MAX($A$2:A34)+1)</f>
         <v/>
@@ -878,7 +978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="str">
         <f>IF(COUNTA(B36)=0,"",MAX($A$2:A35)+1)</f>
         <v/>
@@ -887,7 +987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="str">
         <f>IF(COUNTA(B37)=0,"",MAX($A$2:A36)+1)</f>
         <v/>
@@ -896,236 +996,265 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="str">
         <f>IF(COUNTA(B38)=0,"",MAX($A$2:A37)+1)</f>
         <v/>
       </c>
       <c r="C38" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="str">
         <f>IF(COUNTA(B39)=0,"",MAX($A$2:A38)+1)</f>
         <v/>
       </c>
       <c r="C39" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="str">
+        <f>IF(COUNTA(B40)=0,"",MAX($A$2:A39)+1)</f>
+        <v/>
+      </c>
       <c r="C40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="str">
+        <f>IF(COUNTA(B41)=0,"",MAX($A$2:A40)+1)</f>
+        <v/>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="str">
+        <f>IF(COUNTA(B42)=0,"",MAX($A$2:A41)+1)</f>
+        <v/>
+      </c>
       <c r="C42" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="str">
         <f>IF(COUNTA(B43)=0,"",MAX($A$2:A42)+1)</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="str">
         <f>IF(COUNTA(B44)=0,"",MAX($A$2:A43)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <f>IF(COUNTA(B45)=0,"",MAX($A$2:A44)+1)</f>
         <v>6</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="C45" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="str">
-        <f>IF(COUNTA(B46)=0,"",MAX($A$2:A44)+1)</f>
-        <v/>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="str">
-        <f>IF(COUNTA(B47)=0,"",MAX($A$2:A46)+1)</f>
+        <f>IF(COUNTA(B47)=0,"",MAX($A$2:A45)+1)</f>
         <v/>
       </c>
       <c r="C47" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="str">
         <f>IF(COUNTA(B48)=0,"",MAX($A$2:A47)+1)</f>
         <v/>
       </c>
       <c r="C48" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="str">
         <f>IF(COUNTA(B49)=0,"",MAX($A$2:A48)+1)</f>
         <v/>
       </c>
-      <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="str">
         <f>IF(COUNTA(B50)=0,"",MAX($A$2:A49)+1)</f>
         <v/>
       </c>
       <c r="C50" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="str">
         <f>IF(COUNTA(B51)=0,"",MAX($A$2:A50)+1)</f>
         <v/>
       </c>
       <c r="C51" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="str">
-        <f>IF(COUNTA(B52)=0,"",MAX($A$2:A51)+1)</f>
-        <v/>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="str">
         <f>IF(COUNTA(B53)=0,"",MAX($A$2:A52)+1)</f>
         <v/>
       </c>
       <c r="C53" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="str">
         <f>IF(COUNTA(B54)=0,"",MAX($A$2:A53)+1)</f>
         <v/>
       </c>
       <c r="C54" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="str">
-        <f>IF(COUNTA(B55)=0,"",MAX($A$2:A54)+1)</f>
-        <v/>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="str">
-        <f>IF(COUNTA(B56)=0,"",MAX($A$2:A55)+1)</f>
-        <v/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <f>IF(COUNTA(B56)=0,"",MAX($A$2:A54)+1)</f>
+        <v>7</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="str">
-        <f>IF(COUNTA(B57)=0,"",MAX($A$2:A56)+1)</f>
-        <v/>
-      </c>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C57" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="str">
-        <f>IF(COUNTA(B58)=0,"",MAX($A$2:A57)+1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+        <f>IF(COUNTA(B58)=0,"",MAX($A$2:A56)+1)</f>
+        <v/>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="str">
         <f>IF(COUNTA(B59)=0,"",MAX($A$2:A58)+1)</f>
-        <v>7</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <f>IF(COUNTA(B60)=0,"",MAX($A$2:A59)+1)</f>
+        <v>8</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C60" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="str">
         <f>IF(COUNTA(B61)=0,"",MAX($A$2:A60)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="str">
         <f>IF(COUNTA(B62)=0,"",MAX($A$2:A61)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+      <c r="C62" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="str">
         <f>IF(COUNTA(B63)=0,"",MAX($A$2:A62)+1)</f>
-        <v>8</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>56</v>
+        <v/>
       </c>
       <c r="C63" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="str">
+        <f>IF(COUNTA(B64)=0,"",MAX($A$2:A63)+1)</f>
+        <v/>
+      </c>
       <c r="C64" s="1" t="s">
-        <v>11</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="str">
+        <f>IF(COUNTA(B65)=0,"",MAX($A$2:A64)+1)</f>
+        <v/>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="str">
+      <c r="A66" s="2">
         <f>IF(COUNTA(B66)=0,"",MAX($A$2:A65)+1)</f>
-        <v/>
+        <v>9</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+      <c r="A67" s="2" t="str">
         <f>IF(COUNTA(B67)=0,"",MAX($A$2:A66)+1)</f>
-        <v>9</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>49</v>
+        <v/>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1134,7 +1263,10 @@
         <v/>
       </c>
       <c r="C68" s="1" t="s">
-        <v>50</v>
+        <v>85</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1142,32 +1274,23 @@
         <f>IF(COUNTA(B69)=0,"",MAX($A$2:A68)+1)</f>
         <v/>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="str">
         <f>IF(COUNTA(B70)=0,"",MAX($A$2:A69)+1)</f>
         <v/>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="str">
+      <c r="A71" s="2">
         <f>IF(COUNTA(B71)=0,"",MAX($A$2:A70)+1)</f>
-        <v/>
+        <v>10</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1176,7 +1299,7 @@
         <v/>
       </c>
       <c r="C72" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -1185,7 +1308,10 @@
         <v/>
       </c>
       <c r="C73" s="1" t="s">
-        <v>59</v>
+        <v>91</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -1193,24 +1319,36 @@
         <f>IF(COUNTA(B74)=0,"",MAX($A$2:A73)+1)</f>
         <v/>
       </c>
+      <c r="C74" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="str">
         <f>IF(COUNTA(B75)=0,"",MAX($A$2:A74)+1)</f>
         <v/>
       </c>
+      <c r="C75" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="str">
         <f>IF(COUNTA(B76)=0,"",MAX($A$2:A75)+1)</f>
         <v/>
       </c>
+      <c r="C76" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="str">
         <f>IF(COUNTA(B77)=0,"",MAX($A$2:A76)+1)</f>
         <v/>
       </c>
+      <c r="C77" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="str">
@@ -1230,289 +1368,384 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="str">
         <f>IF(COUNTA(B81)=0,"",MAX($A$2:A80)+1)</f>
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="str">
         <f>IF(COUNTA(B82)=0,"",MAX($A$2:A81)+1)</f>
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="str">
         <f>IF(COUNTA(B83)=0,"",MAX($A$2:A82)+1)</f>
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="str">
         <f>IF(COUNTA(B84)=0,"",MAX($A$2:A83)+1)</f>
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="str">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
         <f>IF(COUNTA(B85)=0,"",MAX($A$2:A84)+1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="str">
         <f>IF(COUNTA(B86)=0,"",MAX($A$2:A85)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C86" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="str">
         <f>IF(COUNTA(B87)=0,"",MAX($A$2:A86)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="str">
-        <f>IF(COUNTA(B88)=0,"",MAX($A$2:A87)+1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="str">
-        <f>IF(COUNTA(B89)=0,"",MAX($A$2:A88)+1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C87" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C88" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C89" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="str">
-        <f>IF(COUNTA(B90)=0,"",MAX($A$2:A89)+1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="str">
+        <f>IF(COUNTA(B90)=0,"",MAX($A$2:A87)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
         <f>IF(COUNTA(B91)=0,"",MAX($A$2:A90)+1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="str">
-        <f>IF(COUNTA(B92)=0,"",MAX($A$2:A91)+1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="str">
-        <f>IF(COUNTA(B93)=0,"",MAX($A$2:A92)+1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+        <f>IF(COUNTA(B93)=0,"",MAX($A$2:A91)+1)</f>
+        <v/>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="str">
         <f>IF(COUNTA(B94)=0,"",MAX($A$2:A93)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C94" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="str">
         <f>IF(COUNTA(B95)=0,"",MAX($A$2:A94)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C95" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="str">
         <f>IF(COUNTA(B96)=0,"",MAX($A$2:A95)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="str">
         <f>IF(COUNTA(B97)=0,"",MAX($A$2:A96)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C97" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="str">
         <f>IF(COUNTA(B98)=0,"",MAX($A$2:A97)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C98" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="str">
         <f>IF(COUNTA(B99)=0,"",MAX($A$2:A98)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C99" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="str">
         <f>IF(COUNTA(B100)=0,"",MAX($A$2:A99)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C100" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="str">
         <f>IF(COUNTA(B101)=0,"",MAX($A$2:A100)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C101" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="str">
         <f>IF(COUNTA(B102)=0,"",MAX($A$2:A101)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C102" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="str">
         <f>IF(COUNTA(B103)=0,"",MAX($A$2:A102)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C103" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="str">
         <f>IF(COUNTA(B104)=0,"",MAX($A$2:A103)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C104" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="str">
         <f>IF(COUNTA(B105)=0,"",MAX($A$2:A104)+1)</f>
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="str">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
         <f>IF(COUNTA(B106)=0,"",MAX($A$2:A105)+1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="str">
-        <f>IF(COUNTA(B107)=0,"",MAX($A$2:A106)+1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="str">
         <f>IF(COUNTA(B108)=0,"",MAX($A$2:A107)+1)</f>
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="str">
         <f>IF(COUNTA(B109)=0,"",MAX($A$2:A108)+1)</f>
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="str">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
         <f>IF(COUNTA(B110)=0,"",MAX($A$2:A109)+1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="str">
-        <f>IF(COUNTA(B111)=0,"",MAX($A$2:A110)+1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="str">
-        <f>IF(COUNTA(B112)=0,"",MAX($A$2:A111)+1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="str">
         <f>IF(COUNTA(B113)=0,"",MAX($A$2:A112)+1)</f>
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="str">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
         <f>IF(COUNTA(B114)=0,"",MAX($A$2:A113)+1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="str">
         <f>IF(COUNTA(B115)=0,"",MAX($A$2:A114)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C115" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="str">
         <f>IF(COUNTA(B116)=0,"",MAX($A$2:A115)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C116" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="str">
         <f>IF(COUNTA(B117)=0,"",MAX($A$2:A116)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C117" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="str">
         <f>IF(COUNTA(B118)=0,"",MAX($A$2:A117)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C118" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="str">
         <f>IF(COUNTA(B119)=0,"",MAX($A$2:A118)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C119" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="str">
         <f>IF(COUNTA(B120)=0,"",MAX($A$2:A119)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C120" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="str">
         <f>IF(COUNTA(B121)=0,"",MAX($A$2:A120)+1)</f>
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="str">
         <f>IF(COUNTA(B122)=0,"",MAX($A$2:A121)+1)</f>
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="str">
         <f>IF(COUNTA(B123)=0,"",MAX($A$2:A122)+1)</f>
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="str">
         <f>IF(COUNTA(B124)=0,"",MAX($A$2:A123)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E124" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="str">
         <f>IF(COUNTA(B125)=0,"",MAX($A$2:A124)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E125" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="str">
         <f>IF(COUNTA(B126)=0,"",MAX($A$2:A125)+1)</f>
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="str">
         <f>IF(COUNTA(B127)=0,"",MAX($A$2:A126)+1)</f>
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="str">
         <f>IF(COUNTA(B128)=0,"",MAX($A$2:A127)+1)</f>
         <v/>
@@ -5781,6 +6014,288 @@
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A839" s="2" t="str">
         <f>IF(COUNTA(B839)=0,"",MAX($A$2:A838)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A840" s="2" t="str">
+        <f>IF(COUNTA(B840)=0,"",MAX($A$2:A839)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A841" s="2" t="str">
+        <f>IF(COUNTA(B841)=0,"",MAX($A$2:A840)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A842" s="2" t="str">
+        <f>IF(COUNTA(B842)=0,"",MAX($A$2:A841)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A843" s="2" t="str">
+        <f>IF(COUNTA(B843)=0,"",MAX($A$2:A842)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A844" s="2" t="str">
+        <f>IF(COUNTA(B844)=0,"",MAX($A$2:A843)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A845" s="2" t="str">
+        <f>IF(COUNTA(B845)=0,"",MAX($A$2:A844)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A846" s="2" t="str">
+        <f>IF(COUNTA(B846)=0,"",MAX($A$2:A845)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A847" s="2" t="str">
+        <f>IF(COUNTA(B847)=0,"",MAX($A$2:A846)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A848" s="2" t="str">
+        <f>IF(COUNTA(B848)=0,"",MAX($A$2:A847)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A849" s="2" t="str">
+        <f>IF(COUNTA(B849)=0,"",MAX($A$2:A848)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A850" s="2" t="str">
+        <f>IF(COUNTA(B850)=0,"",MAX($A$2:A849)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A851" s="2" t="str">
+        <f>IF(COUNTA(B851)=0,"",MAX($A$2:A850)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A852" s="2" t="str">
+        <f>IF(COUNTA(B852)=0,"",MAX($A$2:A851)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A853" s="2" t="str">
+        <f>IF(COUNTA(B853)=0,"",MAX($A$2:A852)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A854" s="2" t="str">
+        <f>IF(COUNTA(B854)=0,"",MAX($A$2:A853)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A855" s="2" t="str">
+        <f>IF(COUNTA(B855)=0,"",MAX($A$2:A854)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A856" s="2" t="str">
+        <f>IF(COUNTA(B856)=0,"",MAX($A$2:A855)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A857" s="2" t="str">
+        <f>IF(COUNTA(B857)=0,"",MAX($A$2:A856)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A858" s="2" t="str">
+        <f>IF(COUNTA(B858)=0,"",MAX($A$2:A857)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A859" s="2" t="str">
+        <f>IF(COUNTA(B859)=0,"",MAX($A$2:A858)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A860" s="2" t="str">
+        <f>IF(COUNTA(B860)=0,"",MAX($A$2:A859)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A861" s="2" t="str">
+        <f>IF(COUNTA(B861)=0,"",MAX($A$2:A860)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A862" s="2" t="str">
+        <f>IF(COUNTA(B862)=0,"",MAX($A$2:A861)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A863" s="2" t="str">
+        <f>IF(COUNTA(B863)=0,"",MAX($A$2:A862)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A864" s="2" t="str">
+        <f>IF(COUNTA(B864)=0,"",MAX($A$2:A863)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A865" s="2" t="str">
+        <f>IF(COUNTA(B865)=0,"",MAX($A$2:A864)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A866" s="2" t="str">
+        <f>IF(COUNTA(B866)=0,"",MAX($A$2:A865)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A867" s="2" t="str">
+        <f>IF(COUNTA(B867)=0,"",MAX($A$2:A866)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A868" s="2" t="str">
+        <f>IF(COUNTA(B868)=0,"",MAX($A$2:A867)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A869" s="2" t="str">
+        <f>IF(COUNTA(B869)=0,"",MAX($A$2:A868)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A870" s="2" t="str">
+        <f>IF(COUNTA(B870)=0,"",MAX($A$2:A869)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A871" s="2" t="str">
+        <f>IF(COUNTA(B871)=0,"",MAX($A$2:A870)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A872" s="2" t="str">
+        <f>IF(COUNTA(B872)=0,"",MAX($A$2:A871)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A873" s="2" t="str">
+        <f>IF(COUNTA(B873)=0,"",MAX($A$2:A872)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A874" s="2" t="str">
+        <f>IF(COUNTA(B874)=0,"",MAX($A$2:A873)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A875" s="2" t="str">
+        <f>IF(COUNTA(B875)=0,"",MAX($A$2:A874)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A876" s="2" t="str">
+        <f>IF(COUNTA(B876)=0,"",MAX($A$2:A875)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A877" s="2" t="str">
+        <f>IF(COUNTA(B877)=0,"",MAX($A$2:A876)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A878" s="2" t="str">
+        <f>IF(COUNTA(B878)=0,"",MAX($A$2:A877)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A879" s="2" t="str">
+        <f>IF(COUNTA(B879)=0,"",MAX($A$2:A878)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A880" s="2" t="str">
+        <f>IF(COUNTA(B880)=0,"",MAX($A$2:A879)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A881" s="2" t="str">
+        <f>IF(COUNTA(B881)=0,"",MAX($A$2:A880)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A882" s="2" t="str">
+        <f>IF(COUNTA(B882)=0,"",MAX($A$2:A881)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A883" s="2" t="str">
+        <f>IF(COUNTA(B883)=0,"",MAX($A$2:A882)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A884" s="2" t="str">
+        <f>IF(COUNTA(B884)=0,"",MAX($A$2:A883)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A885" s="2" t="str">
+        <f>IF(COUNTA(B885)=0,"",MAX($A$2:A884)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A886" s="2" t="str">
+        <f>IF(COUNTA(B886)=0,"",MAX($A$2:A885)+1)</f>
         <v/>
       </c>
     </row>
@@ -5788,28 +6303,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Documents/Analysis & Design/Data Model.xlsx
+++ b/Documents/Analysis & Design/Data Model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="98">
   <si>
     <t>User</t>
   </si>
@@ -280,12 +280,6 @@
     <t>người đại diện</t>
   </si>
   <si>
-    <t>Post job desciption để match với Job seeker profiles</t>
-  </si>
-  <si>
-    <t>Trình độ anh văn</t>
-  </si>
-  <si>
     <t>JobSeeker.HonorsAndAwards</t>
   </si>
   <si>
@@ -296,6 +290,24 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>JobSeeker.Languages</t>
+  </si>
+  <si>
+    <t>User.Languages</t>
+  </si>
+  <si>
+    <t>LanguageID</t>
+  </si>
+  <si>
+    <t>Liên kết đến bảng User.Languages</t>
+  </si>
+  <si>
+    <t>Proficiency</t>
+  </si>
+  <si>
+    <t>Elementary, Limited working, Professional working, Full Professional working, Native or bilingual</t>
   </si>
 </sst>
 </file>
@@ -665,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E886"/>
+  <dimension ref="A1:E888"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,59 +863,59 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="str">
+      <c r="A22" s="2">
         <f>IF(COUNTA(B22)=0,"",MAX($A$2:A21)+1)</f>
-        <v/>
+        <v>5</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="2" t="str">
         <f>IF(COUNTA(B23)=0,"",MAX($A$2:A22)+1)</f>
-        <v>5</v>
-      </c>
-      <c r="B23" s="3" t="s">
+        <v/>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="str">
+        <f>IF(COUNTA(B24)=0,"",MAX($A$2:A23)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <f>IF(COUNTA(B25)=0,"",MAX($A$2:A24)+1)</f>
+        <v>6</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="str">
-        <f>IF(COUNTA(B25)=0,"",MAX($A$2:A23)+1)</f>
-        <v/>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="str">
-        <f>IF(COUNTA(B26)=0,"",MAX($A$2:A25)+1)</f>
-        <v/>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="str">
-        <f>IF(COUNTA(B27)=0,"",MAX($A$2:A26)+1)</f>
+        <f>IF(COUNTA(B27)=0,"",MAX($A$2:A25)+1)</f>
         <v/>
       </c>
       <c r="C27" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -912,7 +924,10 @@
         <v/>
       </c>
       <c r="C28" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -921,7 +936,7 @@
         <v/>
       </c>
       <c r="C29" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -930,7 +945,7 @@
         <v/>
       </c>
       <c r="C30" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -939,7 +954,7 @@
         <v/>
       </c>
       <c r="C31" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -948,156 +963,156 @@
         <v/>
       </c>
       <c r="C32" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="str">
         <f>IF(COUNTA(B33)=0,"",MAX($A$2:A32)+1)</f>
         <v/>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="str">
         <f>IF(COUNTA(B34)=0,"",MAX($A$2:A33)+1)</f>
         <v/>
       </c>
       <c r="C34" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="str">
         <f>IF(COUNTA(B35)=0,"",MAX($A$2:A34)+1)</f>
         <v/>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="str">
         <f>IF(COUNTA(B36)=0,"",MAX($A$2:A35)+1)</f>
         <v/>
       </c>
       <c r="C36" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="str">
         <f>IF(COUNTA(B37)=0,"",MAX($A$2:A36)+1)</f>
         <v/>
       </c>
       <c r="C37" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="str">
         <f>IF(COUNTA(B38)=0,"",MAX($A$2:A37)+1)</f>
         <v/>
       </c>
       <c r="C38" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="str">
         <f>IF(COUNTA(B39)=0,"",MAX($A$2:A38)+1)</f>
         <v/>
       </c>
       <c r="C39" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="str">
         <f>IF(COUNTA(B40)=0,"",MAX($A$2:A39)+1)</f>
         <v/>
       </c>
       <c r="C40" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="str">
         <f>IF(COUNTA(B41)=0,"",MAX($A$2:A40)+1)</f>
         <v/>
       </c>
       <c r="C41" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="str">
         <f>IF(COUNTA(B42)=0,"",MAX($A$2:A41)+1)</f>
         <v/>
       </c>
       <c r="C42" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="str">
         <f>IF(COUNTA(B43)=0,"",MAX($A$2:A42)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="str">
         <f>IF(COUNTA(B44)=0,"",MAX($A$2:A43)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="C44" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="str">
         <f>IF(COUNTA(B45)=0,"",MAX($A$2:A44)+1)</f>
-        <v>6</v>
-      </c>
-      <c r="B45" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="str">
+        <f>IF(COUNTA(B46)=0,"",MAX($A$2:A45)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <f>IF(COUNTA(B47)=0,"",MAX($A$2:A46)+1)</f>
+        <v>7</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C46" s="1" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="str">
-        <f>IF(COUNTA(B47)=0,"",MAX($A$2:A45)+1)</f>
-        <v/>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="str">
-        <f>IF(COUNTA(B48)=0,"",MAX($A$2:A47)+1)</f>
-        <v/>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="str">
-        <f>IF(COUNTA(B49)=0,"",MAX($A$2:A48)+1)</f>
+        <f>IF(COUNTA(B49)=0,"",MAX($A$2:A47)+1)</f>
         <v/>
       </c>
       <c r="C49" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1106,7 +1121,7 @@
         <v/>
       </c>
       <c r="C50" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1115,15 +1130,16 @@
         <v/>
       </c>
       <c r="C51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="str">
+        <f>IF(COUNTA(B52)=0,"",MAX($A$2:A51)+1)</f>
+        <v/>
+      </c>
       <c r="C52" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1132,63 +1148,62 @@
         <v/>
       </c>
       <c r="C53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="str">
+        <f>IF(COUNTA(B55)=0,"",MAX($A$2:A54)+1)</f>
+        <v/>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="str">
-        <f>IF(COUNTA(B54)=0,"",MAX($A$2:A53)+1)</f>
-        <v/>
-      </c>
-      <c r="C54" s="1" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="str">
+        <f>IF(COUNTA(B56)=0,"",MAX($A$2:A55)+1)</f>
+        <v/>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <f>IF(COUNTA(B56)=0,"",MAX($A$2:A54)+1)</f>
-        <v>7</v>
-      </c>
-      <c r="B56" s="3" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <f>IF(COUNTA(B58)=0,"",MAX($A$2:A56)+1)</f>
+        <v>8</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="1" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C59" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="str">
-        <f>IF(COUNTA(B58)=0,"",MAX($A$2:A56)+1)</f>
-        <v/>
-      </c>
-      <c r="C58" s="1" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="str">
+        <f>IF(COUNTA(B60)=0,"",MAX($A$2:A58)+1)</f>
+        <v/>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="str">
-        <f>IF(COUNTA(B59)=0,"",MAX($A$2:A58)+1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <f>IF(COUNTA(B60)=0,"",MAX($A$2:A59)+1)</f>
-        <v>8</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1196,20 +1211,17 @@
         <f>IF(COUNTA(B61)=0,"",MAX($A$2:A60)+1)</f>
         <v/>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="str">
+      <c r="A62" s="2">
         <f>IF(COUNTA(B62)=0,"",MAX($A$2:A61)+1)</f>
-        <v/>
+        <v>9</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1218,7 +1230,10 @@
         <v/>
       </c>
       <c r="C63" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1227,7 +1242,7 @@
         <v/>
       </c>
       <c r="C64" s="1" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1235,17 +1250,17 @@
         <f>IF(COUNTA(B65)=0,"",MAX($A$2:A64)+1)</f>
         <v/>
       </c>
+      <c r="C65" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+      <c r="A66" s="2" t="str">
         <f>IF(COUNTA(B66)=0,"",MAX($A$2:A65)+1)</f>
-        <v>9</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>74</v>
+        <v/>
       </c>
       <c r="C66" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1253,20 +1268,17 @@
         <f>IF(COUNTA(B67)=0,"",MAX($A$2:A66)+1)</f>
         <v/>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="str">
+      <c r="A68" s="2">
         <f>IF(COUNTA(B68)=0,"",MAX($A$2:A67)+1)</f>
-        <v/>
+        <v>10</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1274,23 +1286,26 @@
         <f>IF(COUNTA(B69)=0,"",MAX($A$2:A68)+1)</f>
         <v/>
       </c>
+      <c r="C69" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="str">
         <f>IF(COUNTA(B70)=0,"",MAX($A$2:A69)+1)</f>
         <v/>
       </c>
+      <c r="C70" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+      <c r="A71" s="2" t="str">
         <f>IF(COUNTA(B71)=0,"",MAX($A$2:A70)+1)</f>
-        <v>10</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>75</v>
+        <v/>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1298,20 +1313,17 @@
         <f>IF(COUNTA(B72)=0,"",MAX($A$2:A71)+1)</f>
         <v/>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="str">
+      <c r="A73" s="2">
         <f>IF(COUNTA(B73)=0,"",MAX($A$2:A72)+1)</f>
-        <v/>
+        <v>11</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -1320,7 +1332,7 @@
         <v/>
       </c>
       <c r="C74" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -1329,7 +1341,10 @@
         <v/>
       </c>
       <c r="C75" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -1338,7 +1353,7 @@
         <v/>
       </c>
       <c r="C76" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -1347,7 +1362,7 @@
         <v/>
       </c>
       <c r="C77" s="1" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -1355,12 +1370,18 @@
         <f>IF(COUNTA(B78)=0,"",MAX($A$2:A77)+1)</f>
         <v/>
       </c>
+      <c r="C78" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="str">
         <f>IF(COUNTA(B79)=0,"",MAX($A$2:A78)+1)</f>
         <v/>
       </c>
+      <c r="C79" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="str">
@@ -1369,9 +1390,15 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="str">
+      <c r="A81" s="2">
         <f>IF(COUNTA(B81)=0,"",MAX($A$2:A80)+1)</f>
-        <v/>
+        <v>12</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -1379,12 +1406,24 @@
         <f>IF(COUNTA(B82)=0,"",MAX($A$2:A81)+1)</f>
         <v/>
       </c>
+      <c r="C82" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="str">
         <f>IF(COUNTA(B83)=0,"",MAX($A$2:A82)+1)</f>
         <v/>
       </c>
+      <c r="C83" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="str">
@@ -1393,15 +1432,9 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
+      <c r="A85" s="2" t="str">
         <f>IF(COUNTA(B85)=0,"",MAX($A$2:A84)+1)</f>
-        <v>11</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>75</v>
+        <v/>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -1409,83 +1442,83 @@
         <f>IF(COUNTA(B86)=0,"",MAX($A$2:A85)+1)</f>
         <v/>
       </c>
-      <c r="C86" s="1" t="s">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <f>IF(COUNTA(B87)=0,"",MAX($A$2:A86)+1)</f>
+        <v>13</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="str">
+        <f>IF(COUNTA(B88)=0,"",MAX($A$2:A87)+1)</f>
+        <v/>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="str">
-        <f>IF(COUNTA(B87)=0,"",MAX($A$2:A86)+1)</f>
-        <v/>
-      </c>
-      <c r="C87" s="1" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="str">
+        <f>IF(COUNTA(B89)=0,"",MAX($A$2:A88)+1)</f>
+        <v/>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C88" s="1" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C89" s="1" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C91" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="str">
-        <f>IF(COUNTA(B90)=0,"",MAX($A$2:A87)+1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <f>IF(COUNTA(B91)=0,"",MAX($A$2:A90)+1)</f>
-        <v>12</v>
-      </c>
-      <c r="B91" s="3" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="str">
+        <f>IF(COUNTA(B92)=0,"",MAX($A$2:A89)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <f>IF(COUNTA(B93)=0,"",MAX($A$2:A92)+1)</f>
+        <v>14</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C92" s="1" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C94" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="str">
-        <f>IF(COUNTA(B93)=0,"",MAX($A$2:A91)+1)</f>
-        <v/>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="str">
-        <f>IF(COUNTA(B94)=0,"",MAX($A$2:A93)+1)</f>
-        <v/>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="str">
-        <f>IF(COUNTA(B95)=0,"",MAX($A$2:A94)+1)</f>
+        <f>IF(COUNTA(B95)=0,"",MAX($A$2:A93)+1)</f>
         <v/>
       </c>
       <c r="C95" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -1493,9 +1526,8 @@
         <f>IF(COUNTA(B96)=0,"",MAX($A$2:A95)+1)</f>
         <v/>
       </c>
-      <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1504,7 +1536,7 @@
         <v/>
       </c>
       <c r="C97" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1512,8 +1544,9 @@
         <f>IF(COUNTA(B98)=0,"",MAX($A$2:A97)+1)</f>
         <v/>
       </c>
+      <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1522,7 +1555,7 @@
         <v/>
       </c>
       <c r="C99" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -1531,7 +1564,7 @@
         <v/>
       </c>
       <c r="C100" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1540,7 +1573,7 @@
         <v/>
       </c>
       <c r="C101" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1549,7 +1582,7 @@
         <v/>
       </c>
       <c r="C102" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1558,7 +1591,7 @@
         <v/>
       </c>
       <c r="C103" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1567,7 +1600,7 @@
         <v/>
       </c>
       <c r="C104" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1575,66 +1608,69 @@
         <f>IF(COUNTA(B105)=0,"",MAX($A$2:A104)+1)</f>
         <v/>
       </c>
+      <c r="C105" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
+      <c r="A106" s="2" t="str">
         <f>IF(COUNTA(B106)=0,"",MAX($A$2:A105)+1)</f>
-        <v>13</v>
-      </c>
-      <c r="B106" s="3" t="s">
+        <v/>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="str">
+        <f>IF(COUNTA(B107)=0,"",MAX($A$2:A106)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <f>IF(COUNTA(B108)=0,"",MAX($A$2:A107)+1)</f>
+        <v>15</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C107" s="1" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="str">
-        <f>IF(COUNTA(B108)=0,"",MAX($A$2:A107)+1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="str">
-        <f>IF(COUNTA(B109)=0,"",MAX($A$2:A108)+1)</f>
-        <v/>
-      </c>
-    </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
+      <c r="A110" s="2" t="str">
         <f>IF(COUNTA(B110)=0,"",MAX($A$2:A109)+1)</f>
-        <v>14</v>
-      </c>
-      <c r="B110" s="3" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="str">
+        <f>IF(COUNTA(B111)=0,"",MAX($A$2:A110)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <f>IF(COUNTA(B112)=0,"",MAX($A$2:A111)+1)</f>
+        <v>16</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C111" s="1" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C113" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="str">
-        <f>IF(COUNTA(B113)=0,"",MAX($A$2:A112)+1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
-        <f>IF(COUNTA(B114)=0,"",MAX($A$2:A113)+1)</f>
-        <v>15</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -1642,17 +1678,14 @@
         <f>IF(COUNTA(B115)=0,"",MAX($A$2:A114)+1)</f>
         <v/>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="str">
+      <c r="A116" s="2">
         <f>IF(COUNTA(B116)=0,"",MAX($A$2:A115)+1)</f>
-        <v/>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -1661,10 +1694,7 @@
         <v/>
       </c>
       <c r="C117" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -1673,10 +1703,7 @@
         <v/>
       </c>
       <c r="C118" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -1685,7 +1712,10 @@
         <v/>
       </c>
       <c r="C119" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -1694,7 +1724,10 @@
         <v/>
       </c>
       <c r="C120" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -1702,12 +1735,18 @@
         <f>IF(COUNTA(B121)=0,"",MAX($A$2:A120)+1)</f>
         <v/>
       </c>
+      <c r="C121" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="str">
         <f>IF(COUNTA(B122)=0,"",MAX($A$2:A121)+1)</f>
         <v/>
       </c>
+      <c r="C122" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="str">
@@ -1720,18 +1759,12 @@
         <f>IF(COUNTA(B124)=0,"",MAX($A$2:A123)+1)</f>
         <v/>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="str">
         <f>IF(COUNTA(B125)=0,"",MAX($A$2:A124)+1)</f>
         <v/>
       </c>
-      <c r="E125" s="1" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="str">
@@ -6296,6 +6329,18 @@
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A886" s="2" t="str">
         <f>IF(COUNTA(B886)=0,"",MAX($A$2:A885)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A887" s="2" t="str">
+        <f>IF(COUNTA(B887)=0,"",MAX($A$2:A886)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A888" s="2" t="str">
+        <f>IF(COUNTA(B888)=0,"",MAX($A$2:A887)+1)</f>
         <v/>
       </c>
     </row>

--- a/Documents/Analysis & Design/Data Model.xlsx
+++ b/Documents/Analysis & Design/Data Model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="108">
   <si>
     <t>User</t>
   </si>
@@ -308,6 +308,36 @@
   </si>
   <si>
     <t>Elementary, Limited working, Professional working, Full Professional working, Native or bilingual</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>YearOfExperience</t>
+  </si>
+  <si>
+    <t>Career.AbilityRequires</t>
+  </si>
+  <si>
+    <t>JobID</t>
+  </si>
+  <si>
+    <t>Career.ExperienceRequires</t>
+  </si>
+  <si>
+    <t>Career.Applicants</t>
+  </si>
+  <si>
+    <t>JobSeekerID</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Career.JobIndustry</t>
+  </si>
+  <si>
+    <t>Career.JobFunction</t>
   </si>
 </sst>
 </file>
@@ -677,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E888"/>
+  <dimension ref="A1:E894"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="E126" sqref="E126"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,11 +752,19 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="str">
+        <f>IF(COUNTA(B3)=0,"",MAX($A$2:A2)+1)</f>
+        <v/>
+      </c>
       <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="str">
+        <f>IF(COUNTA(B4)=0,"",MAX($A$2:A3)+1)</f>
+        <v/>
+      </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
@@ -735,23 +773,45 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="str">
+        <f>IF(COUNTA(B5)=0,"",MAX($A$2:A4)+1)</f>
+        <v/>
+      </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="str">
+        <f>IF(COUNTA(B6)=0,"",MAX($A$2:A5)+1)</f>
+        <v/>
+      </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="str">
+        <f>IF(COUNTA(B7)=0,"",MAX($A$2:A6)+1)</f>
+        <v/>
+      </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="str">
+        <f>IF(COUNTA(B8)=0,"",MAX($A$2:A7)+1)</f>
+        <v/>
+      </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="str">
+        <f>IF(COUNTA(B9)=0,"",MAX($A$2:A8)+1)</f>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,42 +1258,20 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="str">
-        <f>IF(COUNTA(B60)=0,"",MAX($A$2:A58)+1)</f>
-        <v/>
-      </c>
       <c r="C60" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="str">
-        <f>IF(COUNTA(B61)=0,"",MAX($A$2:A60)+1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <f>IF(COUNTA(B62)=0,"",MAX($A$2:A61)+1)</f>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <f>IF(COUNTA(B63)=0,"",MAX($A$2:A62)+1)</f>
         <v>9</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="str">
-        <f>IF(COUNTA(B63)=0,"",MAX($A$2:A62)+1)</f>
-        <v/>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1242,7 +1280,10 @@
         <v/>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1251,7 +1292,7 @@
         <v/>
       </c>
       <c r="C65" s="1" t="s">
-        <v>76</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1260,7 +1301,7 @@
         <v/>
       </c>
       <c r="C66" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1268,26 +1309,26 @@
         <f>IF(COUNTA(B67)=0,"",MAX($A$2:A66)+1)</f>
         <v/>
       </c>
+      <c r="C67" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+      <c r="A68" s="2" t="str">
         <f>IF(COUNTA(B68)=0,"",MAX($A$2:A67)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <f>IF(COUNTA(B69)=0,"",MAX($A$2:A68)+1)</f>
         <v>10</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="str">
-        <f>IF(COUNTA(B69)=0,"",MAX($A$2:A68)+1)</f>
-        <v/>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1296,10 +1337,7 @@
         <v/>
       </c>
       <c r="C70" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1307,6 +1345,12 @@
         <f>IF(COUNTA(B71)=0,"",MAX($A$2:A70)+1)</f>
         <v/>
       </c>
+      <c r="C71" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="str">
@@ -1315,24 +1359,21 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+      <c r="A73" s="2" t="str">
         <f>IF(COUNTA(B73)=0,"",MAX($A$2:A72)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <f>IF(COUNTA(B74)=0,"",MAX($A$2:A73)+1)</f>
         <v>11</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="str">
-        <f>IF(COUNTA(B74)=0,"",MAX($A$2:A73)+1)</f>
-        <v/>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -1341,10 +1382,7 @@
         <v/>
       </c>
       <c r="C75" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -1353,7 +1391,10 @@
         <v/>
       </c>
       <c r="C76" s="1" t="s">
-        <v>61</v>
+        <v>89</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -1362,7 +1403,7 @@
         <v/>
       </c>
       <c r="C77" s="1" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -1371,7 +1412,7 @@
         <v/>
       </c>
       <c r="C78" s="1" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -1380,7 +1421,7 @@
         <v/>
       </c>
       <c r="C79" s="1" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -1388,29 +1429,26 @@
         <f>IF(COUNTA(B80)=0,"",MAX($A$2:A79)+1)</f>
         <v/>
       </c>
+      <c r="C80" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+      <c r="A81" s="2" t="str">
         <f>IF(COUNTA(B81)=0,"",MAX($A$2:A80)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <f>IF(COUNTA(B82)=0,"",MAX($A$2:A81)+1)</f>
         <v>12</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="str">
-        <f>IF(COUNTA(B82)=0,"",MAX($A$2:A81)+1)</f>
-        <v/>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -1419,10 +1457,10 @@
         <v/>
       </c>
       <c r="C83" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -1430,6 +1468,12 @@
         <f>IF(COUNTA(B84)=0,"",MAX($A$2:A83)+1)</f>
         <v/>
       </c>
+      <c r="C84" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="str">
@@ -1444,24 +1488,21 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
+      <c r="A87" s="2" t="str">
         <f>IF(COUNTA(B87)=0,"",MAX($A$2:A86)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <f>IF(COUNTA(B88)=0,"",MAX($A$2:A87)+1)</f>
         <v>13</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="str">
-        <f>IF(COUNTA(B88)=0,"",MAX($A$2:A87)+1)</f>
-        <v/>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -1470,64 +1511,64 @@
         <v/>
       </c>
       <c r="C89" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="str">
+        <f>IF(COUNTA(B90)=0,"",MAX($A$2:A89)+1)</f>
+        <v/>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C90" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C91" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C92" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="str">
-        <f>IF(COUNTA(B92)=0,"",MAX($A$2:A89)+1)</f>
-        <v/>
-      </c>
-    </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <f>IF(COUNTA(B93)=0,"",MAX($A$2:A92)+1)</f>
+      <c r="A93" s="2" t="str">
+        <f>IF(COUNTA(B93)=0,"",MAX($A$2:A90)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <f>IF(COUNTA(B94)=0,"",MAX($A$2:A93)+1)</f>
         <v>14</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B94" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C94" s="1" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C95" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="str">
-        <f>IF(COUNTA(B95)=0,"",MAX($A$2:A93)+1)</f>
-        <v/>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="str">
-        <f>IF(COUNTA(B96)=0,"",MAX($A$2:A95)+1)</f>
+        <f>IF(COUNTA(B96)=0,"",MAX($A$2:A94)+1)</f>
         <v/>
       </c>
       <c r="C96" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1536,7 +1577,7 @@
         <v/>
       </c>
       <c r="C97" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1544,9 +1585,8 @@
         <f>IF(COUNTA(B98)=0,"",MAX($A$2:A97)+1)</f>
         <v/>
       </c>
-      <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1554,8 +1594,9 @@
         <f>IF(COUNTA(B99)=0,"",MAX($A$2:A98)+1)</f>
         <v/>
       </c>
+      <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -1564,7 +1605,7 @@
         <v/>
       </c>
       <c r="C100" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1573,7 +1614,7 @@
         <v/>
       </c>
       <c r="C101" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1582,7 +1623,7 @@
         <v/>
       </c>
       <c r="C102" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1591,7 +1632,7 @@
         <v/>
       </c>
       <c r="C103" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1600,7 +1641,7 @@
         <v/>
       </c>
       <c r="C104" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1609,7 +1650,7 @@
         <v/>
       </c>
       <c r="C105" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1618,7 +1659,7 @@
         <v/>
       </c>
       <c r="C106" s="1" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1626,28 +1667,31 @@
         <f>IF(COUNTA(B107)=0,"",MAX($A$2:A106)+1)</f>
         <v/>
       </c>
+      <c r="C107" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
+      <c r="A108" s="2" t="str">
         <f>IF(COUNTA(B108)=0,"",MAX($A$2:A107)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <f>IF(COUNTA(B109)=0,"",MAX($A$2:A108)+1)</f>
         <v>15</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C109" s="1" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="str">
-        <f>IF(COUNTA(B110)=0,"",MAX($A$2:A109)+1)</f>
-        <v/>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -1657,44 +1701,44 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
+      <c r="A112" s="2" t="str">
         <f>IF(COUNTA(B112)=0,"",MAX($A$2:A111)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <f>IF(COUNTA(B113)=0,"",MAX($A$2:A112)+1)</f>
         <v>16</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B113" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C113" s="1" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C114" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="str">
-        <f>IF(COUNTA(B115)=0,"",MAX($A$2:A114)+1)</f>
-        <v/>
-      </c>
-    </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
+      <c r="A116" s="2" t="str">
         <f>IF(COUNTA(B116)=0,"",MAX($A$2:A115)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <f>IF(COUNTA(B117)=0,"",MAX($A$2:A116)+1)</f>
         <v>17</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B117" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="str">
-        <f>IF(COUNTA(B117)=0,"",MAX($A$2:A116)+1)</f>
-        <v/>
-      </c>
       <c r="C117" s="1" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -1703,7 +1747,7 @@
         <v/>
       </c>
       <c r="C118" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -1712,10 +1756,7 @@
         <v/>
       </c>
       <c r="C119" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -1724,10 +1765,10 @@
         <v/>
       </c>
       <c r="C120" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -1736,7 +1777,10 @@
         <v/>
       </c>
       <c r="C121" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -1745,7 +1789,7 @@
         <v/>
       </c>
       <c r="C122" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -1753,6 +1797,9 @@
         <f>IF(COUNTA(B123)=0,"",MAX($A$2:A122)+1)</f>
         <v/>
       </c>
+      <c r="C123" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="str">
@@ -1761,9 +1808,15 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="str">
+      <c r="A125" s="2">
         <f>IF(COUNTA(B125)=0,"",MAX($A$2:A124)+1)</f>
-        <v/>
+        <v>18</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -1771,6 +1824,9 @@
         <f>IF(COUNTA(B126)=0,"",MAX($A$2:A125)+1)</f>
         <v/>
       </c>
+      <c r="C126" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="str">
@@ -1779,102 +1835,144 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="str">
+      <c r="A128" s="2">
         <f>IF(COUNTA(B128)=0,"",MAX($A$2:A127)+1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="str">
         <f>IF(COUNTA(B129)=0,"",MAX($A$2:A128)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C129" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="str">
         <f>IF(COUNTA(B130)=0,"",MAX($A$2:A129)+1)</f>
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="str">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
         <f>IF(COUNTA(B131)=0,"",MAX($A$2:A130)+1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="str">
         <f>IF(COUNTA(B132)=0,"",MAX($A$2:A131)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C132" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="str">
         <f>IF(COUNTA(B133)=0,"",MAX($A$2:A132)+1)</f>
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="str">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
         <f>IF(COUNTA(B134)=0,"",MAX($A$2:A133)+1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="str">
         <f>IF(COUNTA(B135)=0,"",MAX($A$2:A134)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C135" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="str">
         <f>IF(COUNTA(B136)=0,"",MAX($A$2:A135)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C136" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="str">
         <f>IF(COUNTA(B137)=0,"",MAX($A$2:A136)+1)</f>
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="str">
         <f>IF(COUNTA(B138)=0,"",MAX($A$2:A137)+1)</f>
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="str">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
         <f>IF(COUNTA(B139)=0,"",MAX($A$2:A138)+1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="str">
         <f>IF(COUNTA(B140)=0,"",MAX($A$2:A139)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C140" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="str">
         <f>IF(COUNTA(B141)=0,"",MAX($A$2:A140)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C141" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="str">
         <f>IF(COUNTA(B142)=0,"",MAX($A$2:A141)+1)</f>
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="str">
         <f>IF(COUNTA(B143)=0,"",MAX($A$2:A142)+1)</f>
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="str">
         <f>IF(COUNTA(B144)=0,"",MAX($A$2:A143)+1)</f>
         <v/>
@@ -6341,6 +6439,42 @@
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A888" s="2" t="str">
         <f>IF(COUNTA(B888)=0,"",MAX($A$2:A887)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A889" s="2" t="str">
+        <f>IF(COUNTA(B889)=0,"",MAX($A$2:A888)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A890" s="2" t="str">
+        <f>IF(COUNTA(B890)=0,"",MAX($A$2:A889)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A891" s="2" t="str">
+        <f>IF(COUNTA(B891)=0,"",MAX($A$2:A890)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A892" s="2" t="str">
+        <f>IF(COUNTA(B892)=0,"",MAX($A$2:A891)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A893" s="2" t="str">
+        <f>IF(COUNTA(B893)=0,"",MAX($A$2:A892)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A894" s="2" t="str">
+        <f>IF(COUNTA(B894)=0,"",MAX($A$2:A893)+1)</f>
         <v/>
       </c>
     </row>

--- a/Documents/Analysis & Design/Data Model.xlsx
+++ b/Documents/Analysis & Design/Data Model.xlsx
@@ -70,15 +70,9 @@
     <t>CityID</t>
   </si>
   <si>
-    <t>User.City</t>
-  </si>
-  <si>
     <t>CountryID</t>
   </si>
   <si>
-    <t>User.Country</t>
-  </si>
-  <si>
     <t>Flag</t>
   </si>
   <si>
@@ -211,18 +205,12 @@
     <t>Description</t>
   </si>
   <si>
-    <t>SkillTagID</t>
-  </si>
-  <si>
     <t>SkillName</t>
   </si>
   <si>
     <t>JobSeeker.Projects</t>
   </si>
   <si>
-    <t>JobSeeker.SkillTags</t>
-  </si>
-  <si>
     <t>ProjectID</t>
   </si>
   <si>
@@ -295,9 +283,6 @@
     <t>JobSeeker.Languages</t>
   </si>
   <si>
-    <t>User.Languages</t>
-  </si>
-  <si>
     <t>LanguageID</t>
   </si>
   <si>
@@ -338,6 +323,21 @@
   </si>
   <si>
     <t>Career.JobFunction</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t>JobSeeker.Skill</t>
+  </si>
+  <si>
+    <t>SkillID</t>
   </si>
 </sst>
 </file>
@@ -707,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E894"/>
+  <dimension ref="A1:E893"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +757,7 @@
         <v/>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -826,7 +826,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -850,7 +850,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>17</v>
@@ -871,7 +871,7 @@
         <v/>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,10 +892,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -913,7 +913,7 @@
         <v/>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -928,10 +928,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -955,10 +955,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -972,10 +972,10 @@
         <v/>
       </c>
       <c r="C27" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -984,10 +984,10 @@
         <v/>
       </c>
       <c r="C28" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -996,7 +996,7 @@
         <v/>
       </c>
       <c r="C29" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1005,7 +1005,7 @@
         <v/>
       </c>
       <c r="C30" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1014,7 +1014,7 @@
         <v/>
       </c>
       <c r="C31" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1023,7 +1023,7 @@
         <v/>
       </c>
       <c r="C32" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1032,7 +1032,7 @@
         <v/>
       </c>
       <c r="C33" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1041,7 +1041,7 @@
         <v/>
       </c>
       <c r="C34" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1050,7 +1050,7 @@
         <v/>
       </c>
       <c r="C35" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1059,7 +1059,7 @@
         <v/>
       </c>
       <c r="C36" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1095,7 +1095,7 @@
         <v/>
       </c>
       <c r="C40" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1104,7 +1104,7 @@
         <v/>
       </c>
       <c r="C41" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1113,7 +1113,7 @@
         <v/>
       </c>
       <c r="C42" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1122,7 +1122,7 @@
         <v/>
       </c>
       <c r="C43" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1152,10 +1152,10 @@
         <v>7</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1169,10 +1169,10 @@
         <v/>
       </c>
       <c r="C49" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,7 +1181,7 @@
         <v/>
       </c>
       <c r="C50" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1190,7 +1190,7 @@
         <v/>
       </c>
       <c r="C51" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1199,7 +1199,7 @@
         <v/>
       </c>
       <c r="C52" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1208,15 +1208,15 @@
         <v/>
       </c>
       <c r="C53" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1225,10 +1225,10 @@
         <v/>
       </c>
       <c r="C55" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1246,10 +1246,10 @@
         <v>8</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1259,19 +1259,31 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <f>IF(COUNTA(B62)=0,"",MAX($A$2:A61)+1)</f>
+        <v>9</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="str">
+        <f>IF(COUNTA(B63)=0,"",MAX($A$2:A62)+1)</f>
+        <v/>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <f>IF(COUNTA(B63)=0,"",MAX($A$2:A62)+1)</f>
-        <v>9</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1280,10 +1292,7 @@
         <v/>
       </c>
       <c r="C64" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1292,7 +1301,7 @@
         <v/>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1301,7 +1310,7 @@
         <v/>
       </c>
       <c r="C66" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1309,26 +1318,26 @@
         <f>IF(COUNTA(B67)=0,"",MAX($A$2:A66)+1)</f>
         <v/>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="str">
+      <c r="A68" s="2">
         <f>IF(COUNTA(B68)=0,"",MAX($A$2:A67)+1)</f>
-        <v/>
+        <v>10</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+      <c r="A69" s="2" t="str">
         <f>IF(COUNTA(B69)=0,"",MAX($A$2:A68)+1)</f>
-        <v>10</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>74</v>
+        <v/>
       </c>
       <c r="C69" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1337,7 +1346,10 @@
         <v/>
       </c>
       <c r="C70" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1345,12 +1357,6 @@
         <f>IF(COUNTA(B71)=0,"",MAX($A$2:A70)+1)</f>
         <v/>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="str">
@@ -1359,21 +1365,24 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="str">
+      <c r="A73" s="2">
         <f>IF(COUNTA(B73)=0,"",MAX($A$2:A72)+1)</f>
-        <v/>
+        <v>11</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+      <c r="A74" s="2" t="str">
         <f>IF(COUNTA(B74)=0,"",MAX($A$2:A73)+1)</f>
-        <v>11</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>88</v>
+        <v/>
       </c>
       <c r="C74" s="1" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -1382,7 +1391,10 @@
         <v/>
       </c>
       <c r="C75" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -1391,10 +1403,7 @@
         <v/>
       </c>
       <c r="C76" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -1403,7 +1412,7 @@
         <v/>
       </c>
       <c r="C77" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -1412,7 +1421,7 @@
         <v/>
       </c>
       <c r="C78" s="1" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -1421,7 +1430,7 @@
         <v/>
       </c>
       <c r="C79" s="1" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -1429,26 +1438,29 @@
         <f>IF(COUNTA(B80)=0,"",MAX($A$2:A79)+1)</f>
         <v/>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="str">
+      <c r="A81" s="2">
         <f>IF(COUNTA(B81)=0,"",MAX($A$2:A80)+1)</f>
-        <v/>
+        <v>12</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
+      <c r="A82" s="2" t="str">
         <f>IF(COUNTA(B82)=0,"",MAX($A$2:A81)+1)</f>
-        <v>12</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>92</v>
+        <v/>
       </c>
       <c r="C82" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -1457,10 +1469,10 @@
         <v/>
       </c>
       <c r="C83" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -1468,12 +1480,6 @@
         <f>IF(COUNTA(B84)=0,"",MAX($A$2:A83)+1)</f>
         <v/>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="str">
@@ -1488,21 +1494,24 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="str">
+      <c r="A87" s="2">
         <f>IF(COUNTA(B87)=0,"",MAX($A$2:A86)+1)</f>
-        <v/>
+        <v>13</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
+      <c r="A88" s="2" t="str">
         <f>IF(COUNTA(B88)=0,"",MAX($A$2:A87)+1)</f>
-        <v>13</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>78</v>
+        <v/>
       </c>
       <c r="C88" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -1511,64 +1520,64 @@
         <v/>
       </c>
       <c r="C89" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="str">
-        <f>IF(COUNTA(B90)=0,"",MAX($A$2:A89)+1)</f>
-        <v/>
-      </c>
       <c r="C90" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="E91" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C92" s="1" t="s">
+      <c r="A92" s="2" t="str">
+        <f>IF(COUNTA(B92)=0,"",MAX($A$2:A89)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <f>IF(COUNTA(B93)=0,"",MAX($A$2:A92)+1)</f>
+        <v>14</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="str">
-        <f>IF(COUNTA(B93)=0,"",MAX($A$2:A90)+1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <f>IF(COUNTA(B94)=0,"",MAX($A$2:A93)+1)</f>
-        <v>14</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="str">
+        <f>IF(COUNTA(B95)=0,"",MAX($A$2:A93)+1)</f>
+        <v/>
+      </c>
       <c r="C95" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="str">
-        <f>IF(COUNTA(B96)=0,"",MAX($A$2:A94)+1)</f>
+        <f>IF(COUNTA(B96)=0,"",MAX($A$2:A95)+1)</f>
         <v/>
       </c>
       <c r="C96" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1577,7 +1586,7 @@
         <v/>
       </c>
       <c r="C97" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1585,8 +1594,9 @@
         <f>IF(COUNTA(B98)=0,"",MAX($A$2:A97)+1)</f>
         <v/>
       </c>
+      <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1594,9 +1604,8 @@
         <f>IF(COUNTA(B99)=0,"",MAX($A$2:A98)+1)</f>
         <v/>
       </c>
-      <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -1605,7 +1614,7 @@
         <v/>
       </c>
       <c r="C100" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1614,7 +1623,7 @@
         <v/>
       </c>
       <c r="C101" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1623,7 +1632,7 @@
         <v/>
       </c>
       <c r="C102" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1632,7 +1641,7 @@
         <v/>
       </c>
       <c r="C103" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1650,7 +1659,7 @@
         <v/>
       </c>
       <c r="C105" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1659,7 +1668,7 @@
         <v/>
       </c>
       <c r="C106" s="1" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1667,31 +1676,28 @@
         <f>IF(COUNTA(B107)=0,"",MAX($A$2:A106)+1)</f>
         <v/>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="str">
+      <c r="A108" s="2">
         <f>IF(COUNTA(B108)=0,"",MAX($A$2:A107)+1)</f>
-        <v/>
+        <v>15</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
-        <f>IF(COUNTA(B109)=0,"",MAX($A$2:A108)+1)</f>
-        <v>15</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="C109" s="1" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C110" s="1" t="s">
-        <v>11</v>
+      <c r="A110" s="2" t="str">
+        <f>IF(COUNTA(B110)=0,"",MAX($A$2:A109)+1)</f>
+        <v/>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -1701,44 +1707,47 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="str">
+      <c r="A112" s="2">
         <f>IF(COUNTA(B112)=0,"",MAX($A$2:A111)+1)</f>
-        <v/>
+        <v>16</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
-        <f>IF(COUNTA(B113)=0,"",MAX($A$2:A112)+1)</f>
-        <v>16</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="C113" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C114" s="1" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="str">
+        <f>IF(COUNTA(B115)=0,"",MAX($A$2:A114)+1)</f>
+        <v/>
+      </c>
+    </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="str">
+      <c r="A116" s="2">
         <f>IF(COUNTA(B116)=0,"",MAX($A$2:A115)+1)</f>
-        <v/>
+        <v>17</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
+      <c r="A117" s="2" t="str">
         <f>IF(COUNTA(B117)=0,"",MAX($A$2:A116)+1)</f>
-        <v>17</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>47</v>
+        <v/>
       </c>
       <c r="C117" s="1" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -1747,7 +1756,7 @@
         <v/>
       </c>
       <c r="C118" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -1758,6 +1767,9 @@
       <c r="C119" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="E119" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="str">
@@ -1765,10 +1777,10 @@
         <v/>
       </c>
       <c r="C120" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -1777,10 +1789,7 @@
         <v/>
       </c>
       <c r="C121" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -1789,7 +1798,7 @@
         <v/>
       </c>
       <c r="C122" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -1797,26 +1806,26 @@
         <f>IF(COUNTA(B123)=0,"",MAX($A$2:A122)+1)</f>
         <v/>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="str">
+      <c r="A124" s="2">
         <f>IF(COUNTA(B124)=0,"",MAX($A$2:A123)+1)</f>
-        <v/>
+        <v>18</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
+      <c r="A125" s="2" t="str">
         <f>IF(COUNTA(B125)=0,"",MAX($A$2:A124)+1)</f>
-        <v>18</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>106</v>
+        <v/>
       </c>
       <c r="C125" s="1" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -1824,26 +1833,26 @@
         <f>IF(COUNTA(B126)=0,"",MAX($A$2:A125)+1)</f>
         <v/>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="str">
+      <c r="A127" s="2">
         <f>IF(COUNTA(B127)=0,"",MAX($A$2:A126)+1)</f>
-        <v/>
+        <v>19</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
+      <c r="A128" s="2" t="str">
         <f>IF(COUNTA(B128)=0,"",MAX($A$2:A127)+1)</f>
-        <v>19</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>107</v>
+        <v/>
       </c>
       <c r="C128" s="1" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -1851,26 +1860,26 @@
         <f>IF(COUNTA(B129)=0,"",MAX($A$2:A128)+1)</f>
         <v/>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="str">
+      <c r="A130" s="2">
         <f>IF(COUNTA(B130)=0,"",MAX($A$2:A129)+1)</f>
-        <v/>
+        <v>20</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
+      <c r="A131" s="2" t="str">
         <f>IF(COUNTA(B131)=0,"",MAX($A$2:A130)+1)</f>
-        <v>20</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>100</v>
+        <v/>
       </c>
       <c r="C131" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -1878,26 +1887,26 @@
         <f>IF(COUNTA(B132)=0,"",MAX($A$2:A131)+1)</f>
         <v/>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="str">
+      <c r="A133" s="2">
         <f>IF(COUNTA(B133)=0,"",MAX($A$2:A132)+1)</f>
-        <v/>
+        <v>21</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
+      <c r="A134" s="2" t="str">
         <f>IF(COUNTA(B134)=0,"",MAX($A$2:A133)+1)</f>
-        <v>21</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>102</v>
+        <v/>
       </c>
       <c r="C134" s="1" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -1906,7 +1915,7 @@
         <v/>
       </c>
       <c r="C135" s="1" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -1914,9 +1923,6 @@
         <f>IF(COUNTA(B136)=0,"",MAX($A$2:A135)+1)</f>
         <v/>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="str">
@@ -1925,21 +1931,24 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="str">
+      <c r="A138" s="2">
         <f>IF(COUNTA(B138)=0,"",MAX($A$2:A137)+1)</f>
-        <v/>
+        <v>22</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="2">
+      <c r="A139" s="2" t="str">
         <f>IF(COUNTA(B139)=0,"",MAX($A$2:A138)+1)</f>
-        <v>22</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>103</v>
+        <v/>
       </c>
       <c r="C139" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -1948,7 +1957,7 @@
         <v/>
       </c>
       <c r="C140" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -1956,9 +1965,6 @@
         <f>IF(COUNTA(B141)=0,"",MAX($A$2:A140)+1)</f>
         <v/>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="str">
@@ -6469,12 +6475,6 @@
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A893" s="2" t="str">
         <f>IF(COUNTA(B893)=0,"",MAX($A$2:A892)+1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A894" s="2" t="str">
-        <f>IF(COUNTA(B894)=0,"",MAX($A$2:A893)+1)</f>
         <v/>
       </c>
     </row>

--- a/Documents/Analysis & Design/Data Model.xlsx
+++ b/Documents/Analysis & Design/Data Model.xlsx
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E893"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/Analysis & Design/Data Model.xlsx
+++ b/Documents/Analysis & Design/Data Model.xlsx
@@ -10,11 +10,14 @@
     <sheet name="DataModel" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Kyo - Personal View" guid="{A69FBA16-DF95-4B9D-BE6E-BB050ABCF727}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="543" activeSheetId="1"/>
+  </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="108">
   <si>
     <t>User</t>
   </si>
@@ -151,9 +154,6 @@
     <t>CompanyID</t>
   </si>
   <si>
-    <t>Career.JobDescription</t>
-  </si>
-  <si>
     <t>JobTitle</t>
   </si>
   <si>
@@ -169,21 +169,12 @@
     <t>Executive, Director, Mid-senior level, Associate, Entry level, Internship, Not Applicable</t>
   </si>
   <si>
-    <t>Career.Industry</t>
-  </si>
-  <si>
-    <t>Career.Function</t>
-  </si>
-  <si>
     <t>FunctionID</t>
   </si>
   <si>
     <t>Compensation</t>
   </si>
   <si>
-    <t>Referral</t>
-  </si>
-  <si>
     <t>From</t>
   </si>
   <si>
@@ -226,9 +217,6 @@
     <t>Education / Work</t>
   </si>
   <si>
-    <t>JobSeeker.ProjectTeamMembers</t>
-  </si>
-  <si>
     <t>rowguid</t>
   </si>
   <si>
@@ -241,15 +229,6 @@
     <t>JobSeeker.Connections</t>
   </si>
   <si>
-    <t>ReferralID</t>
-  </si>
-  <si>
-    <t>UserID_1</t>
-  </si>
-  <si>
-    <t>UserID_2</t>
-  </si>
-  <si>
     <t>Khai thác dữ liệu từ bảng Company</t>
   </si>
   <si>
@@ -268,9 +247,6 @@
     <t>người đại diện</t>
   </si>
   <si>
-    <t>JobSeeker.HonorsAndAwards</t>
-  </si>
-  <si>
     <t>Issuer</t>
   </si>
   <si>
@@ -301,30 +277,15 @@
     <t>YearOfExperience</t>
   </si>
   <si>
-    <t>Career.AbilityRequires</t>
-  </si>
-  <si>
     <t>JobID</t>
   </si>
   <si>
-    <t>Career.ExperienceRequires</t>
-  </si>
-  <si>
-    <t>Career.Applicants</t>
-  </si>
-  <si>
     <t>JobSeekerID</t>
   </si>
   <si>
     <t>Result</t>
   </si>
   <si>
-    <t>Career.JobIndustry</t>
-  </si>
-  <si>
-    <t>Career.JobFunction</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -338,6 +299,48 @@
   </si>
   <si>
     <t>SkillID</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>ProjectName</t>
+  </si>
+  <si>
+    <t>JobSeeker.ProjectMembers</t>
+  </si>
+  <si>
+    <t>JobSeeker.HonorAward</t>
+  </si>
+  <si>
+    <t>FromUserID</t>
+  </si>
+  <si>
+    <t>ToUserID</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Job.Industry</t>
+  </si>
+  <si>
+    <t>Job.Function</t>
+  </si>
+  <si>
+    <t>Job.Ability</t>
+  </si>
+  <si>
+    <t>Job.Experience</t>
+  </si>
+  <si>
+    <t>Job.Applicant</t>
   </si>
 </sst>
 </file>
@@ -418,6 +421,490 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{1A9BA1B0-89C4-4D28-AA8D-01DAB124E753}" diskRevisions="1" revisionId="31" version="14">
+  <header guid="{2944303F-8BD7-470C-A790-089BD1C0857F}" dateTime="2011-09-21T23:42:39" maxSheetId="2" userName="Kyo" r:id="rId1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AD4E9616-32A0-4B78-BD50-6BC7F054CECC}" dateTime="2011-09-21T23:43:06" maxSheetId="2" userName="Kyo" r:id="rId2" minRId="1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3A65AFEA-06EE-4D4C-B7AC-6DBE36825B02}" dateTime="2011-09-21T23:43:33" maxSheetId="2" userName="Kyo" r:id="rId3" minRId="2" maxRId="3">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E180E2D7-54D8-48BF-B2F5-2C33E8AB7112}" dateTime="2011-09-21T23:48:55" maxSheetId="2" userName="Kyo" r:id="rId4" minRId="4">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1B193ED6-1140-4D4E-988B-A799C62314C6}" dateTime="2011-09-21T23:54:34" maxSheetId="2" userName="Kyo" r:id="rId5" minRId="5">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F3BE20F3-244B-4D3A-9649-BF0F91148FD9}" dateTime="2011-09-21T23:56:35" maxSheetId="2" userName="Kyo" r:id="rId6" minRId="6" maxRId="7">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C0CF3C0D-4C37-401B-9047-A7F322D4F182}" dateTime="2011-09-22T00:06:11" maxSheetId="2" userName="Kyo" r:id="rId7" minRId="8" maxRId="9">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6EC0477F-0EED-4BDB-A8F4-A25F2EE16BEF}" dateTime="2011-09-22T00:06:21" maxSheetId="2" userName="Kyo" r:id="rId8" minRId="10">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B74ECC17-E987-4F34-97DA-2D998D372131}" dateTime="2011-09-22T00:06:29" maxSheetId="2" userName="Kyo" r:id="rId9" minRId="11">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1DBC6B93-AF98-4143-A462-18BB832BDDD9}" dateTime="2011-09-22T00:18:21" maxSheetId="2" userName="Kyo" r:id="rId10" minRId="12" maxRId="13">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B2000ACF-E5A0-4CA6-B303-253003AA0598}" dateTime="2011-09-22T00:20:56" maxSheetId="2" userName="Kyo" r:id="rId11" minRId="14" maxRId="17">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CF49B679-E5AB-4AA2-8E36-E3D62C265C71}" dateTime="2011-09-22T00:49:04" maxSheetId="2" userName="Kyo" r:id="rId12" minRId="18" maxRId="21">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C372146B-AC05-4C8E-BF90-06A2A447DE0C}" dateTime="2011-09-22T00:49:16" maxSheetId="2" userName="Kyo" r:id="rId13" minRId="22" maxRId="23">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1A9BA1B0-89C4-4D28-AA8D-01DAB124E753}" dateTime="2011-09-22T00:54:18" maxSheetId="2" userName="Kyo" r:id="rId14" minRId="24" maxRId="31">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="12" sId="1">
+    <oc r="C90" t="inlineStr">
+      <is>
+        <t>UserID_1</t>
+      </is>
+    </oc>
+    <nc r="C90" t="inlineStr">
+      <is>
+        <t>FromUserID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="13" sId="1">
+    <oc r="C91" t="inlineStr">
+      <is>
+        <t>UserID_2</t>
+      </is>
+    </oc>
+    <nc r="C91" t="inlineStr">
+      <is>
+        <t>ToUserID</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="14" sId="1" ref="A92:XFD92" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="A92:XFD92" start="0" length="0">
+      <dxf>
+        <alignment horizontal="left" vertical="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="A92" start="0" length="0">
+      <dxf>
+        <font>
+          <b/>
+          <sz val="11"/>
+          <color rgb="FFFF0000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="B92" start="0" length="0">
+      <dxf>
+        <font>
+          <b/>
+          <sz val="11"/>
+          <color theme="4"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="1">
+      <nc r="C92" t="inlineStr">
+        <is>
+          <t>ReferralID</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="15" sId="1" ref="A93:XFD93" action="insertRow"/>
+  <rrc rId="16" sId="1" ref="A93:XFD93" action="insertRow"/>
+  <rcc rId="17" sId="1">
+    <nc r="C93" t="inlineStr">
+      <is>
+        <t>ModifiedDate</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="18" sId="1" ref="A125:XFD125" action="deleteRow">
+    <undo index="7" exp="area" dr="$A$2:A125" r="A126" sId="1"/>
+    <rfmt sheetId="1" xfDxf="1" sqref="A125:XFD125" start="0" length="0">
+      <dxf>
+        <alignment horizontal="left" vertical="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="A125">
+        <f>IF(COUNTA(B125)=0,"",MAX($A$2:A124)+1)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <b/>
+          <sz val="11"/>
+          <color rgb="FFFF0000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="1" sqref="B125" start="0" length="0">
+      <dxf>
+        <font>
+          <b/>
+          <sz val="11"/>
+          <color theme="4"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="1">
+      <nc r="C125" t="inlineStr">
+        <is>
+          <t>Referral</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="19" sId="1" ref="A122:XFD122" action="insertRow"/>
+  <rcc rId="20" sId="1">
+    <oc r="C121" t="inlineStr">
+      <is>
+        <t>Location</t>
+      </is>
+    </oc>
+    <nc r="C121" t="inlineStr">
+      <is>
+        <t>CityID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="21" sId="1">
+    <nc r="C122" t="inlineStr">
+      <is>
+        <t>CountryID</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="22" sId="1" ref="A121:XFD121" action="insertRow"/>
+  <rcc rId="23" sId="1">
+    <nc r="C121" t="inlineStr">
+      <is>
+        <t>CompanyName</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="24" sId="1">
+    <oc r="B111" t="inlineStr">
+      <is>
+        <t>Career.Industry</t>
+      </is>
+    </oc>
+    <nc r="B111" t="inlineStr">
+      <is>
+        <t>Industry</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="25" sId="1">
+    <oc r="B115" t="inlineStr">
+      <is>
+        <t>Career.Function</t>
+      </is>
+    </oc>
+    <nc r="B115" t="inlineStr">
+      <is>
+        <t>Function</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="26" sId="1">
+    <oc r="B119" t="inlineStr">
+      <is>
+        <t>Career.JobDescription</t>
+      </is>
+    </oc>
+    <nc r="B119" t="inlineStr">
+      <is>
+        <t>Job</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="27" sId="1">
+    <oc r="B128" t="inlineStr">
+      <is>
+        <t>Career.JobIndustry</t>
+      </is>
+    </oc>
+    <nc r="B128" t="inlineStr">
+      <is>
+        <t>Job.Industry</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="28" sId="1">
+    <oc r="B131" t="inlineStr">
+      <is>
+        <t>Career.JobFunction</t>
+      </is>
+    </oc>
+    <nc r="B131" t="inlineStr">
+      <is>
+        <t>Job.Function</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="29" sId="1">
+    <oc r="B134" t="inlineStr">
+      <is>
+        <t>Career.AbilityRequires</t>
+      </is>
+    </oc>
+    <nc r="B134" t="inlineStr">
+      <is>
+        <t>Job.Ability</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="30" sId="1">
+    <oc r="B137" t="inlineStr">
+      <is>
+        <t>Career.ExperienceRequires</t>
+      </is>
+    </oc>
+    <nc r="B137" t="inlineStr">
+      <is>
+        <t>Job.Experience</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="31" sId="1">
+    <oc r="B142" t="inlineStr">
+      <is>
+        <t>Career.Applicants</t>
+      </is>
+    </oc>
+    <nc r="B142" t="inlineStr">
+      <is>
+        <t>Job.Applicant</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="1">
+    <oc r="C63" t="inlineStr">
+      <is>
+        <t>ExperienceID</t>
+      </is>
+    </oc>
+    <nc r="C63" t="inlineStr">
+      <is>
+        <t>Occupation</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="2" sId="1" ref="A63:XFD63" action="insertRow"/>
+  <rcc rId="3" sId="1">
+    <nc r="C63" t="inlineStr">
+      <is>
+        <t>ProjectName</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="4" sId="1">
+    <oc r="B69" t="inlineStr">
+      <is>
+        <t>JobSeeker.ProjectTeamMembers</t>
+      </is>
+    </oc>
+    <nc r="B69" t="inlineStr">
+      <is>
+        <t>JobSeeker.ProjectMembers</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="5" sId="1">
+    <oc r="B74" t="inlineStr">
+      <is>
+        <t>JobSeeker.HonorsAndAwards</t>
+      </is>
+    </oc>
+    <nc r="B74" t="inlineStr">
+      <is>
+        <t>JobSeeker.HonorAward</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="6" sId="1" ref="A75:XFD75" action="insertRow"/>
+  <rcc rId="7" sId="1">
+    <nc r="C75" t="inlineStr">
+      <is>
+        <t>UserID</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="8" sId="1" ref="A84:XFD84" action="insertRow"/>
+  <rcc rId="9" sId="1">
+    <nc r="C84" t="inlineStr">
+      <is>
+        <t>UserID</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="10" sId="1">
+    <nc r="C87" t="inlineStr">
+      <is>
+        <t>ModifiedDate</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="11" sId="1" ref="A88:XFD88" action="deleteRow">
+    <undo index="7" exp="area" dr="$A$2:A88" r="A89" sId="1"/>
+    <rfmt sheetId="1" xfDxf="1" sqref="A88:XFD88" start="0" length="0">
+      <dxf>
+        <alignment horizontal="left" vertical="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="A88">
+        <f>IF(COUNTA(B88)=0,"",MAX($A$2:A87)+1)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <b/>
+          <sz val="11"/>
+          <color rgb="FFFF0000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="1" sqref="B88" start="0" length="0">
+      <dxf>
+        <font>
+          <b/>
+          <sz val="11"/>
+          <color theme="4"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+  </rrc>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -707,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E893"/>
+  <dimension ref="A1:E897"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,7 +1313,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -850,7 +1337,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>17</v>
@@ -892,7 +1379,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>18</v>
@@ -928,10 +1415,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -958,7 +1445,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1152,10 +1639,10 @@
         <v>7</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1169,10 +1656,10 @@
         <v/>
       </c>
       <c r="C49" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,7 +1668,7 @@
         <v/>
       </c>
       <c r="C50" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1190,7 +1677,7 @@
         <v/>
       </c>
       <c r="C51" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1199,7 +1686,7 @@
         <v/>
       </c>
       <c r="C52" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1208,15 +1695,15 @@
         <v/>
       </c>
       <c r="C53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1225,10 +1712,10 @@
         <v/>
       </c>
       <c r="C55" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1246,10 +1733,10 @@
         <v>8</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1259,7 +1746,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1268,31 +1755,27 @@
         <v>9</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="str">
-        <f>IF(COUNTA(B63)=0,"",MAX($A$2:A62)+1)</f>
-        <v/>
-      </c>
       <c r="C63" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="str">
-        <f>IF(COUNTA(B64)=0,"",MAX($A$2:A63)+1)</f>
+        <f>IF(COUNTA(B64)=0,"",MAX($A$2:A62)+1)</f>
         <v/>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1301,7 +1784,7 @@
         <v/>
       </c>
       <c r="C65" s="1" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1310,7 +1793,7 @@
         <v/>
       </c>
       <c r="C66" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1318,26 +1801,26 @@
         <f>IF(COUNTA(B67)=0,"",MAX($A$2:A66)+1)</f>
         <v/>
       </c>
+      <c r="C67" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+      <c r="A68" s="2" t="str">
         <f>IF(COUNTA(B68)=0,"",MAX($A$2:A67)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <f>IF(COUNTA(B69)=0,"",MAX($A$2:A68)+1)</f>
         <v>10</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="str">
-        <f>IF(COUNTA(B69)=0,"",MAX($A$2:A68)+1)</f>
-        <v/>
+      <c r="B69" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1346,10 +1829,7 @@
         <v/>
       </c>
       <c r="C70" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1357,6 +1837,12 @@
         <f>IF(COUNTA(B71)=0,"",MAX($A$2:A70)+1)</f>
         <v/>
       </c>
+      <c r="C71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="str">
@@ -1365,45 +1851,35 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+      <c r="A73" s="2" t="str">
         <f>IF(COUNTA(B73)=0,"",MAX($A$2:A72)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <f>IF(COUNTA(B74)=0,"",MAX($A$2:A73)+1)</f>
         <v>11</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="str">
-        <f>IF(COUNTA(B74)=0,"",MAX($A$2:A73)+1)</f>
-        <v/>
+      <c r="B74" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="str">
-        <f>IF(COUNTA(B75)=0,"",MAX($A$2:A74)+1)</f>
-        <v/>
-      </c>
       <c r="C75" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="str">
-        <f>IF(COUNTA(B76)=0,"",MAX($A$2:A75)+1)</f>
+        <f>IF(COUNTA(B76)=0,"",MAX($A$2:A74)+1)</f>
         <v/>
       </c>
       <c r="C76" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -1412,7 +1888,10 @@
         <v/>
       </c>
       <c r="C77" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -1421,7 +1900,7 @@
         <v/>
       </c>
       <c r="C78" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -1430,7 +1909,7 @@
         <v/>
       </c>
       <c r="C79" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -1438,17 +1917,17 @@
         <f>IF(COUNTA(B80)=0,"",MAX($A$2:A79)+1)</f>
         <v/>
       </c>
+      <c r="C80" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+      <c r="A81" s="2" t="str">
         <f>IF(COUNTA(B81)=0,"",MAX($A$2:A80)+1)</f>
-        <v>12</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>88</v>
+        <v/>
       </c>
       <c r="C81" s="1" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -1456,35 +1935,34 @@
         <f>IF(COUNTA(B82)=0,"",MAX($A$2:A81)+1)</f>
         <v/>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="str">
+      <c r="A83" s="2">
         <f>IF(COUNTA(B83)=0,"",MAX($A$2:A82)+1)</f>
-        <v/>
+        <v>12</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="str">
-        <f>IF(COUNTA(B84)=0,"",MAX($A$2:A83)+1)</f>
-        <v/>
+      <c r="C84" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="str">
-        <f>IF(COUNTA(B85)=0,"",MAX($A$2:A84)+1)</f>
-        <v/>
+        <f>IF(COUNTA(B85)=0,"",MAX($A$2:A83)+1)</f>
+        <v/>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -1492,17 +1970,20 @@
         <f>IF(COUNTA(B86)=0,"",MAX($A$2:A85)+1)</f>
         <v/>
       </c>
+      <c r="C86" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
+      <c r="A87" s="2" t="str">
         <f>IF(COUNTA(B87)=0,"",MAX($A$2:A86)+1)</f>
-        <v>13</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>74</v>
+        <v/>
       </c>
       <c r="C87" s="1" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -1510,244 +1991,235 @@
         <f>IF(COUNTA(B88)=0,"",MAX($A$2:A87)+1)</f>
         <v/>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="str">
+      <c r="A89" s="2">
         <f>IF(COUNTA(B89)=0,"",MAX($A$2:A88)+1)</f>
-        <v/>
+        <v>13</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="str">
+        <f>IF(COUNTA(B90)=0,"",MAX($A$2:A89)+1)</f>
+        <v/>
+      </c>
       <c r="C90" s="1" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="str">
+        <f>IF(COUNTA(B91)=0,"",MAX($A$2:A90)+1)</f>
+        <v/>
+      </c>
       <c r="C91" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="str">
-        <f>IF(COUNTA(B92)=0,"",MAX($A$2:A89)+1)</f>
-        <v/>
+      <c r="C92" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <f>IF(COUNTA(B93)=0,"",MAX($A$2:A92)+1)</f>
-        <v>14</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="C93" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C94" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="str">
-        <f>IF(COUNTA(B95)=0,"",MAX($A$2:A93)+1)</f>
-        <v/>
-      </c>
-      <c r="C95" s="1" t="s">
+        <f>IF(COUNTA(B95)=0,"",MAX($A$2:A91)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <f>IF(COUNTA(B96)=0,"",MAX($A$2:A95)+1)</f>
+        <v>14</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="str">
+        <f>IF(COUNTA(B98)=0,"",MAX($A$2:A96)+1)</f>
+        <v/>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="str">
-        <f>IF(COUNTA(B96)=0,"",MAX($A$2:A95)+1)</f>
-        <v/>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="str">
-        <f>IF(COUNTA(B97)=0,"",MAX($A$2:A96)+1)</f>
-        <v/>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="str">
-        <f>IF(COUNTA(B98)=0,"",MAX($A$2:A97)+1)</f>
-        <v/>
-      </c>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="str">
         <f>IF(COUNTA(B99)=0,"",MAX($A$2:A98)+1)</f>
         <v/>
       </c>
       <c r="C99" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="str">
         <f>IF(COUNTA(B100)=0,"",MAX($A$2:A99)+1)</f>
         <v/>
       </c>
       <c r="C100" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="str">
         <f>IF(COUNTA(B101)=0,"",MAX($A$2:A100)+1)</f>
         <v/>
       </c>
+      <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="str">
         <f>IF(COUNTA(B102)=0,"",MAX($A$2:A101)+1)</f>
         <v/>
       </c>
       <c r="C102" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="str">
         <f>IF(COUNTA(B103)=0,"",MAX($A$2:A102)+1)</f>
         <v/>
       </c>
       <c r="C103" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="str">
         <f>IF(COUNTA(B104)=0,"",MAX($A$2:A103)+1)</f>
         <v/>
       </c>
       <c r="C104" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="str">
         <f>IF(COUNTA(B105)=0,"",MAX($A$2:A104)+1)</f>
         <v/>
       </c>
       <c r="C105" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="str">
         <f>IF(COUNTA(B106)=0,"",MAX($A$2:A105)+1)</f>
         <v/>
       </c>
       <c r="C106" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="str">
         <f>IF(COUNTA(B107)=0,"",MAX($A$2:A106)+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
+      <c r="C107" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="str">
         <f>IF(COUNTA(B108)=0,"",MAX($A$2:A107)+1)</f>
-        <v>15</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>51</v>
+        <v/>
       </c>
       <c r="C108" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="str">
+        <f>IF(COUNTA(B109)=0,"",MAX($A$2:A108)+1)</f>
+        <v/>
+      </c>
       <c r="C109" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="str">
         <f>IF(COUNTA(B110)=0,"",MAX($A$2:A109)+1)</f>
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="str">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
         <f>IF(COUNTA(B111)=0,"",MAX($A$2:A110)+1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
-        <f>IF(COUNTA(B112)=0,"",MAX($A$2:A111)+1)</f>
+        <v>15</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C112" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="str">
+        <f>IF(COUNTA(B113)=0,"",MAX($A$2:A112)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="str">
+        <f>IF(COUNTA(B114)=0,"",MAX($A$2:A113)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <f>IF(COUNTA(B115)=0,"",MAX($A$2:A114)+1)</f>
         <v>16</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C113" s="1" t="s">
+      <c r="B115" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C116" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="str">
-        <f>IF(COUNTA(B115)=0,"",MAX($A$2:A114)+1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
-        <f>IF(COUNTA(B116)=0,"",MAX($A$2:A115)+1)</f>
-        <v>17</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="str">
-        <f>IF(COUNTA(B117)=0,"",MAX($A$2:A116)+1)</f>
-        <v/>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -1755,20 +2227,17 @@
         <f>IF(COUNTA(B118)=0,"",MAX($A$2:A117)+1)</f>
         <v/>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="str">
+      <c r="A119" s="2">
         <f>IF(COUNTA(B119)=0,"",MAX($A$2:A118)+1)</f>
-        <v/>
+        <v>17</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -1777,46 +2246,38 @@
         <v/>
       </c>
       <c r="C120" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="str">
-        <f>IF(COUNTA(B121)=0,"",MAX($A$2:A120)+1)</f>
-        <v/>
-      </c>
       <c r="C121" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="str">
-        <f>IF(COUNTA(B122)=0,"",MAX($A$2:A121)+1)</f>
+        <f>IF(COUNTA(B122)=0,"",MAX($A$2:A120)+1)</f>
         <v/>
       </c>
       <c r="C122" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="str">
-        <f>IF(COUNTA(B123)=0,"",MAX($A$2:A122)+1)</f>
-        <v/>
+      <c r="C123" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
-        <f>IF(COUNTA(B124)=0,"",MAX($A$2:A123)+1)</f>
-        <v>18</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>101</v>
+      <c r="A124" s="2" t="str">
+        <f>IF(COUNTA(B124)=0,"",MAX($A$2:A122)+1)</f>
+        <v/>
       </c>
       <c r="C124" s="1" t="s">
-        <v>96</v>
+        <v>48</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -1825,7 +2286,10 @@
         <v/>
       </c>
       <c r="C125" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -1833,26 +2297,26 @@
         <f>IF(COUNTA(B126)=0,"",MAX($A$2:A125)+1)</f>
         <v/>
       </c>
+      <c r="C126" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
+      <c r="A127" s="2" t="str">
         <f>IF(COUNTA(B127)=0,"",MAX($A$2:A126)+1)</f>
-        <v>19</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>96</v>
+        <v/>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="str">
+      <c r="A128" s="2">
         <f>IF(COUNTA(B128)=0,"",MAX($A$2:A127)+1)</f>
-        <v/>
+        <v>18</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -1860,26 +2324,26 @@
         <f>IF(COUNTA(B129)=0,"",MAX($A$2:A128)+1)</f>
         <v/>
       </c>
+      <c r="C129" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
+      <c r="A130" s="2" t="str">
         <f>IF(COUNTA(B130)=0,"",MAX($A$2:A129)+1)</f>
-        <v>20</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>96</v>
+        <v/>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="str">
+      <c r="A131" s="2">
         <f>IF(COUNTA(B131)=0,"",MAX($A$2:A130)+1)</f>
-        <v/>
+        <v>19</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -1887,26 +2351,26 @@
         <f>IF(COUNTA(B132)=0,"",MAX($A$2:A131)+1)</f>
         <v/>
       </c>
+      <c r="C132" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
+      <c r="A133" s="2" t="str">
         <f>IF(COUNTA(B133)=0,"",MAX($A$2:A132)+1)</f>
-        <v>21</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>96</v>
+        <v/>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="str">
+      <c r="A134" s="2">
         <f>IF(COUNTA(B134)=0,"",MAX($A$2:A133)+1)</f>
-        <v/>
+        <v>20</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -1915,7 +2379,7 @@
         <v/>
       </c>
       <c r="C135" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -1925,21 +2389,24 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="str">
+      <c r="A137" s="2">
         <f>IF(COUNTA(B137)=0,"",MAX($A$2:A136)+1)</f>
-        <v/>
+        <v>21</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
+      <c r="A138" s="2" t="str">
         <f>IF(COUNTA(B138)=0,"",MAX($A$2:A137)+1)</f>
-        <v>22</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>98</v>
+        <v/>
       </c>
       <c r="C138" s="1" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -1948,7 +2415,7 @@
         <v/>
       </c>
       <c r="C139" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -1956,9 +2423,6 @@
         <f>IF(COUNTA(B140)=0,"",MAX($A$2:A139)+1)</f>
         <v/>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="str">
@@ -1967,9 +2431,15 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="str">
+      <c r="A142" s="2">
         <f>IF(COUNTA(B142)=0,"",MAX($A$2:A141)+1)</f>
-        <v/>
+        <v>22</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -1977,12 +2447,18 @@
         <f>IF(COUNTA(B143)=0,"",MAX($A$2:A142)+1)</f>
         <v/>
       </c>
+      <c r="C143" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="str">
         <f>IF(COUNTA(B144)=0,"",MAX($A$2:A143)+1)</f>
         <v/>
       </c>
+      <c r="C144" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="str">
@@ -6478,8 +6954,39 @@
         <v/>
       </c>
     </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A894" s="2" t="str">
+        <f>IF(COUNTA(B894)=0,"",MAX($A$2:A893)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A895" s="2" t="str">
+        <f>IF(COUNTA(B895)=0,"",MAX($A$2:A894)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A896" s="2" t="str">
+        <f>IF(COUNTA(B896)=0,"",MAX($A$2:A895)+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A897" s="2" t="str">
+        <f>IF(COUNTA(B897)=0,"",MAX($A$2:A896)+1)</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{A69FBA16-DF95-4B9D-BE6E-BB050ABCF727}" topLeftCell="B52">
+      <selection activeCell="C63" sqref="C63"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Documents/Analysis & Design/Data Model.xlsx
+++ b/Documents/Analysis & Design/Data Model.xlsx
@@ -425,240 +425,12 @@
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
 <headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{1A9BA1B0-89C4-4D28-AA8D-01DAB124E753}" diskRevisions="1" revisionId="31" version="14">
-  <header guid="{2944303F-8BD7-470C-A790-089BD1C0857F}" dateTime="2011-09-21T23:42:39" maxSheetId="2" userName="Kyo" r:id="rId1">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{AD4E9616-32A0-4B78-BD50-6BC7F054CECC}" dateTime="2011-09-21T23:43:06" maxSheetId="2" userName="Kyo" r:id="rId2" minRId="1">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{3A65AFEA-06EE-4D4C-B7AC-6DBE36825B02}" dateTime="2011-09-21T23:43:33" maxSheetId="2" userName="Kyo" r:id="rId3" minRId="2" maxRId="3">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{E180E2D7-54D8-48BF-B2F5-2C33E8AB7112}" dateTime="2011-09-21T23:48:55" maxSheetId="2" userName="Kyo" r:id="rId4" minRId="4">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{1B193ED6-1140-4D4E-988B-A799C62314C6}" dateTime="2011-09-21T23:54:34" maxSheetId="2" userName="Kyo" r:id="rId5" minRId="5">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F3BE20F3-244B-4D3A-9649-BF0F91148FD9}" dateTime="2011-09-21T23:56:35" maxSheetId="2" userName="Kyo" r:id="rId6" minRId="6" maxRId="7">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{C0CF3C0D-4C37-401B-9047-A7F322D4F182}" dateTime="2011-09-22T00:06:11" maxSheetId="2" userName="Kyo" r:id="rId7" minRId="8" maxRId="9">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{6EC0477F-0EED-4BDB-A8F4-A25F2EE16BEF}" dateTime="2011-09-22T00:06:21" maxSheetId="2" userName="Kyo" r:id="rId8" minRId="10">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{B74ECC17-E987-4F34-97DA-2D998D372131}" dateTime="2011-09-22T00:06:29" maxSheetId="2" userName="Kyo" r:id="rId9" minRId="11">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{1DBC6B93-AF98-4143-A462-18BB832BDDD9}" dateTime="2011-09-22T00:18:21" maxSheetId="2" userName="Kyo" r:id="rId10" minRId="12" maxRId="13">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{B2000ACF-E5A0-4CA6-B303-253003AA0598}" dateTime="2011-09-22T00:20:56" maxSheetId="2" userName="Kyo" r:id="rId11" minRId="14" maxRId="17">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{CF49B679-E5AB-4AA2-8E36-E3D62C265C71}" dateTime="2011-09-22T00:49:04" maxSheetId="2" userName="Kyo" r:id="rId12" minRId="18" maxRId="21">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{C372146B-AC05-4C8E-BF90-06A2A447DE0C}" dateTime="2011-09-22T00:49:16" maxSheetId="2" userName="Kyo" r:id="rId13" minRId="22" maxRId="23">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
   <header guid="{1A9BA1B0-89C4-4D28-AA8D-01DAB124E753}" dateTime="2011-09-22T00:54:18" maxSheetId="2" userName="Kyo" r:id="rId14" minRId="24" maxRId="31">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
 </headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="12" sId="1">
-    <oc r="C90" t="inlineStr">
-      <is>
-        <t>UserID_1</t>
-      </is>
-    </oc>
-    <nc r="C90" t="inlineStr">
-      <is>
-        <t>FromUserID</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="13" sId="1">
-    <oc r="C91" t="inlineStr">
-      <is>
-        <t>UserID_2</t>
-      </is>
-    </oc>
-    <nc r="C91" t="inlineStr">
-      <is>
-        <t>ToUserID</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="14" sId="1" ref="A92:XFD92" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A92:XFD92" start="0" length="0">
-      <dxf>
-        <alignment horizontal="left" vertical="center" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="A92" start="0" length="0">
-      <dxf>
-        <font>
-          <b/>
-          <sz val="11"/>
-          <color rgb="FFFF0000"/>
-          <name val="Calibri"/>
-          <scheme val="minor"/>
-        </font>
-        <alignment horizontal="center" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="B92" start="0" length="0">
-      <dxf>
-        <font>
-          <b/>
-          <sz val="11"/>
-          <color theme="4"/>
-          <name val="Calibri"/>
-          <scheme val="minor"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1">
-      <nc r="C92" t="inlineStr">
-        <is>
-          <t>ReferralID</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="15" sId="1" ref="A93:XFD93" action="insertRow"/>
-  <rrc rId="16" sId="1" ref="A93:XFD93" action="insertRow"/>
-  <rcc rId="17" sId="1">
-    <nc r="C93" t="inlineStr">
-      <is>
-        <t>ModifiedDate</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="18" sId="1" ref="A125:XFD125" action="deleteRow">
-    <undo index="7" exp="area" dr="$A$2:A125" r="A126" sId="1"/>
-    <rfmt sheetId="1" xfDxf="1" sqref="A125:XFD125" start="0" length="0">
-      <dxf>
-        <alignment horizontal="left" vertical="center" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="A125">
-        <f>IF(COUNTA(B125)=0,"",MAX($A$2:A124)+1)</f>
-      </nc>
-      <ndxf>
-        <font>
-          <b/>
-          <sz val="11"/>
-          <color rgb="FFFF0000"/>
-          <name val="Calibri"/>
-          <scheme val="minor"/>
-        </font>
-        <alignment horizontal="center" readingOrder="0"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="B125" start="0" length="0">
-      <dxf>
-        <font>
-          <b/>
-          <sz val="11"/>
-          <color theme="4"/>
-          <name val="Calibri"/>
-          <scheme val="minor"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1">
-      <nc r="C125" t="inlineStr">
-        <is>
-          <t>Referral</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="19" sId="1" ref="A122:XFD122" action="insertRow"/>
-  <rcc rId="20" sId="1">
-    <oc r="C121" t="inlineStr">
-      <is>
-        <t>Location</t>
-      </is>
-    </oc>
-    <nc r="C121" t="inlineStr">
-      <is>
-        <t>CityID</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="21" sId="1">
-    <nc r="C122" t="inlineStr">
-      <is>
-        <t>CountryID</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="22" sId="1" ref="A121:XFD121" action="insertRow"/>
-  <rcc rId="23" sId="1">
-    <nc r="C121" t="inlineStr">
-      <is>
-        <t>CompanyName</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -759,147 +531,6 @@
       </is>
     </nc>
   </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="1" sId="1">
-    <oc r="C63" t="inlineStr">
-      <is>
-        <t>ExperienceID</t>
-      </is>
-    </oc>
-    <nc r="C63" t="inlineStr">
-      <is>
-        <t>Occupation</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="2" sId="1" ref="A63:XFD63" action="insertRow"/>
-  <rcc rId="3" sId="1">
-    <nc r="C63" t="inlineStr">
-      <is>
-        <t>ProjectName</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="4" sId="1">
-    <oc r="B69" t="inlineStr">
-      <is>
-        <t>JobSeeker.ProjectTeamMembers</t>
-      </is>
-    </oc>
-    <nc r="B69" t="inlineStr">
-      <is>
-        <t>JobSeeker.ProjectMembers</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="5" sId="1">
-    <oc r="B74" t="inlineStr">
-      <is>
-        <t>JobSeeker.HonorsAndAwards</t>
-      </is>
-    </oc>
-    <nc r="B74" t="inlineStr">
-      <is>
-        <t>JobSeeker.HonorAward</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="6" sId="1" ref="A75:XFD75" action="insertRow"/>
-  <rcc rId="7" sId="1">
-    <nc r="C75" t="inlineStr">
-      <is>
-        <t>UserID</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="8" sId="1" ref="A84:XFD84" action="insertRow"/>
-  <rcc rId="9" sId="1">
-    <nc r="C84" t="inlineStr">
-      <is>
-        <t>UserID</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="10" sId="1">
-    <nc r="C87" t="inlineStr">
-      <is>
-        <t>ModifiedDate</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="11" sId="1" ref="A88:XFD88" action="deleteRow">
-    <undo index="7" exp="area" dr="$A$2:A88" r="A89" sId="1"/>
-    <rfmt sheetId="1" xfDxf="1" sqref="A88:XFD88" start="0" length="0">
-      <dxf>
-        <alignment horizontal="left" vertical="center" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="A88">
-        <f>IF(COUNTA(B88)=0,"",MAX($A$2:A87)+1)</f>
-      </nc>
-      <ndxf>
-        <font>
-          <b/>
-          <sz val="11"/>
-          <color rgb="FFFF0000"/>
-          <name val="Calibri"/>
-          <scheme val="minor"/>
-        </font>
-        <alignment horizontal="center" readingOrder="0"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="B88" start="0" length="0">
-      <dxf>
-        <font>
-          <b/>
-          <sz val="11"/>
-          <color theme="4"/>
-          <name val="Calibri"/>
-          <scheme val="minor"/>
-        </font>
-      </dxf>
-    </rfmt>
-  </rrc>
 </revisions>
 </file>
 
